--- a/computer_vision-main/chapter1.xlsx
+++ b/computer_vision-main/chapter1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D 資料匣\課程\勤益課程\電腦視覺\前後測\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B78DC3F-F319-48BB-BEF0-8DADC38573C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10320"/>
+    <workbookView xWindow="44595" yWindow="3705" windowWidth="16455" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1156,14 +1157,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CH 1 簡介</t>
+    <t>CH 01 簡介</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,16 +1532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>176</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>181</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>225</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>235</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>245</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>260</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>268</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>283</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>288</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>293</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>298</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>308</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>313</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>318</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>323</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>327</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>332</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>337</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>347</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>350</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>355</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>358</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>363</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>368</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>373</v>
       </c>
@@ -3137,6 +3138,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>